--- a/3.1.Capstone-Template-Spreadsheets-1-to-3.xlsx
+++ b/3.1.Capstone-Template-Spreadsheets-1-to-3.xlsx
@@ -35562,7 +35562,7 @@
   <dimension ref="A1:T247"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:O247"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
